--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,6 +796,69 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C18" t="n">
+        <v>536</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-29 14:38:50.521701</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C19" t="n">
+        <v>537</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-05-29 14:45:27.322080</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C20" t="n">
+        <v>538</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-05-29 14:47:44.611490</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,6 +859,132 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12312312312</v>
+      </c>
+      <c r="B21" t="n">
+        <v>123123123</v>
+      </c>
+      <c r="C21" t="n">
+        <v>536</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:20:55.817507</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C22" t="n">
+        <v>536</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:39:55.769461</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
+        <v>536</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:46:08.957388</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>536</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:10.986891</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>536</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:47:36.451346</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12121</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C26" t="n">
+        <v>536</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:56:09.997940</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,6 +1321,27 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>100</v>
+      </c>
+      <c r="B43" t="n">
+        <v>100</v>
+      </c>
+      <c r="C43" t="n">
+        <v>536</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-06-05 15:07:25.518556</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,6 +1342,27 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>50</v>
+      </c>
+      <c r="B44" t="n">
+        <v>50</v>
+      </c>
+      <c r="C44" t="n">
+        <v>536</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Valeriy</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-06-06 11:08:22.449061</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
